--- a/questions/Server Command Table A8.xlsx
+++ b/questions/Server Command Table A8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\SimplicityStudio\v5_workspace\ecen5823-assignment7-krishna-cuboulder\questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\SimplicityStudio\v5_workspace\ecen5823-assignment8-krishna-cuboulder\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A641F1-0538-494B-BD2F-E85C16929615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7614FB-27D1-4D5B-92F4-A4A51681D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -157,9 +157,6 @@
     <t>sl_bt_scanner_set_parameters()</t>
   </si>
   <si>
-    <t>sl_bt_gatt_discover_primary_services_by_uuid()</t>
-  </si>
-  <si>
     <t>We will call displayUpdate()</t>
   </si>
   <si>
@@ -173,18 +170,6 @@
   </si>
   <si>
     <t>Save GATT HTM characteristic handle</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Save connection handle</t>
-  </si>
-  <si>
-    <t>Discover primary services with the specified UUID in a remote GATT database.</t>
-  </si>
-  <si>
-    <t>Start the GAP discovery procedure to scan for advertising devices.</t>
   </si>
   <si>
     <t>Received for advertising or scan response packets generated by: sl_bt_scanner_start().</t>
@@ -207,21 +192,6 @@
   </si>
   <si>
     <t>sl_bt_evt_scanner_legacy_advertisement_report_id</t>
-  </si>
-  <si>
-    <t>DISPLAY_ROW_BTADDR: &lt;Client's bd_addr&gt;</t>
-  </si>
-  <si>
-    <t>DISPLAY_ROW_ASSIGNMENT: "A7"</t>
-  </si>
-  <si>
-    <t>DISPLAY_ROW_NAME: "Client"</t>
-  </si>
-  <si>
-    <t>DISPLAY_ROW_CONNECTION: "Discovering"</t>
-  </si>
-  <si>
-    <t>DISPLAY_ROW_BTADDR2: &lt;Server's bd_addr&gt;</t>
   </si>
   <si>
     <t>DISPLAY_ROW_CONNECTION: "Connected"</t>
@@ -245,6 +215,135 @@
   </si>
   <si>
     <t>DISPLAY_ROW_TEMPVALUE: "Temp=&lt;temperature value&gt;"</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_BTADDR: &lt;Server's bd_addr&gt;</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_ASSIGNMENT: "A8"</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_NAME: "Server"</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_CONNECTION: "Advertising"</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_PASSKEY: ""</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_ACTION: ""</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_9: ""</t>
+  </si>
+  <si>
+    <t>Events only for Slaves/Servers</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_confirm_bonding_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_confirm_passkey_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_bonding_failed_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_connection_parameters_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_system_external_signal_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_server_characteristic_status_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_server_indication_timeout_id</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_PASSKEY: &lt;passkey&gt;</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_bonded_id</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_CONNECTION: "Bonded"</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_9: "Button Pressed" or "Button Released"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If client_config_flags == gatt_disable, DISPLAY_ROW_TEMPVALUE: "" </t>
+  </si>
+  <si>
+    <t>Client:</t>
+  </si>
+  <si>
+    <t>Server:</t>
+  </si>
+  <si>
+    <t>sl_bt_system_get_identity_address()</t>
+  </si>
+  <si>
+    <t>sl_bt_advertiser_create_set()</t>
+  </si>
+  <si>
+    <t>sl_bt_advertiser_set_timing()</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_delete_bondings()</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_configure()</t>
+  </si>
+  <si>
+    <t>sl_bt_afvertiser_generate_data()</t>
+  </si>
+  <si>
+    <t>sl_bt_legacy_advertiser_start()</t>
+  </si>
+  <si>
+    <t>sl_bt_advertiser_stop()</t>
+  </si>
+  <si>
+    <t>sl_bt_connection_set_parameters()</t>
+  </si>
+  <si>
+    <t>sl_bt_legacy_advertiser_generate_data()</t>
+  </si>
+  <si>
+    <t>Print the connection parameters</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_bonding_confirm()</t>
+  </si>
+  <si>
+    <t>sl_bt_connection_close()</t>
+  </si>
+  <si>
+    <t>gpioLed0SetOff, gpioLed0SetOn, gpioLed1SetOff, gpioLed1SetOn</t>
+  </si>
+  <si>
+    <t>Connection is closed, so reset all the flags and rows on the display</t>
+  </si>
+  <si>
+    <t>This event triggers when there is an external event i.e., PB0 is pressed/released</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_passkey_confirm if not bonded, ble_send_button_state otherwise</t>
+  </si>
+  <si>
+    <t>X for discovery_state_machine</t>
+  </si>
+  <si>
+    <t>X for temperature_state_machine</t>
+  </si>
+  <si>
+    <t>Temperature State Machine:</t>
+  </si>
+  <si>
+    <t>Display State of Server</t>
   </si>
 </sst>
 </file>
@@ -275,27 +374,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="13"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFE46C0A"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -316,8 +395,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE46C0A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +435,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -444,9 +552,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,10 +577,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,36 +594,49 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,7 +646,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -624,13 +742,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>87721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>126644</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>252283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -653,14 +771,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18638520" y="373380"/>
-          <a:ext cx="7772400" cy="4127144"/>
+          <a:off x="19210020" y="415381"/>
+          <a:ext cx="7772400" cy="4043142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1750,17 +1867,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="71.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74" style="1" customWidth="1"/>
@@ -1768,25 +1885,28 @@
     <col min="8" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" ht="12" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="119.25" customHeight="1">
+      <c r="G2" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="119.25" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1802,7 +1922,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1">
+    <row r="4" spans="1:7" ht="12" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -1820,341 +1940,688 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" customHeight="1">
+      <c r="C5" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:7" ht="13.8">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="15" t="s">
+      <c r="C8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="69">
+    <row r="9" spans="1:7" ht="69">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.8">
+      <c r="C9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.25" customHeight="1">
+    <row r="11" spans="1:7" ht="26.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" ht="27.6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="17" t="s">
+    <row r="12" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.8">
+      <c r="A21" s="4"/>
+      <c r="B21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="78.75" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="C21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="17" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A35" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:6" ht="27.6">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" spans="1:6" ht="78.75" customHeight="1">
+      <c r="A55" s="4"/>
+      <c r="B55" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A57" s="4"/>
+      <c r="B57" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16" t="s">
+      <c r="C57" s="15"/>
+      <c r="D57" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="E58" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="E24" s="21" t="s">
+    </row>
+    <row r="59" spans="1:6" ht="27.6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="21" t="s">
+      <c r="E59" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="1:6" ht="27.6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="E61" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+    </row>
+    <row r="63" spans="1:6" ht="65.25" customHeight="1">
+      <c r="A63" s="4"/>
+      <c r="B63" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="28.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="18" t="s">
+      <c r="D63" s="15"/>
+      <c r="E63" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="27.6">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" ht="28.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="22" t="s">
+      <c r="F63" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="27.6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+    </row>
+    <row r="65" spans="1:6" ht="27.6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
